--- a/misc files/microbreweries.xlsx
+++ b/misc files/microbreweries.xlsx
@@ -1824,7 +1824,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,189 +3009,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A30"/>
+  <dimension ref="A2:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A26" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A2 &amp;""", Address = """&amp;microbreweries!C2&amp;", "&amp; microbreweries!D2 &amp;""", Latitude="&amp;microbreweries!L2 &amp;", Longitude="&amp; microbreweries!M2 &amp;", Phone="""&amp;microbreweries!F2&amp;", Website="""&amp;microbreweries!H2&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Arctic Fox Brewing", Address = "1/45-47 Sinclair Road, Dandenong", Latitude=-37.988505, Longitude=145.197162, Phone="9792 1800, Website="http://www.arcticfox.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A2 &amp;""", Address = """&amp;microbreweries!C2&amp;", "&amp; microbreweries!D2 &amp;""", Latitude="&amp;microbreweries!L2 &amp;", Longitude="&amp; microbreweries!M2 &amp;", Phone="""&amp;microbreweries!F2&amp;""", Website=@"""&amp;microbreweries!H2&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Arctic Fox Brewing", Address = "1/45-47 Sinclair Road, Dandenong", Latitude=-37.988505, Longitude=145.197162, Phone="9792 1800", Website=@"http://www.arcticfox.com.au" });</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A3 &amp;""", Address = """&amp;microbreweries!C3&amp;", "&amp; microbreweries!D3 &amp;""", Latitude="&amp;microbreweries!L3 &amp;", Longitude="&amp; microbreweries!M3 &amp;", Phone="""&amp;microbreweries!F3&amp;", Website="""&amp;microbreweries!H3&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Bellarine Brewing Company", Address = "2270 Portarlington Road, Bellarine ", Latitude=-38.137468, Longitude=144.610376, Phone="03 5259 3310, Website="http://www.bellarineestate.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A3 &amp;""", Address = """&amp;microbreweries!C3&amp;", "&amp; microbreweries!D3 &amp;""", Latitude="&amp;microbreweries!L3 &amp;", Longitude="&amp; microbreweries!M3 &amp;", Phone="""&amp;microbreweries!F3&amp;""", Website=@"""&amp;microbreweries!H3&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Bellarine Brewing Company", Address = "2270 Portarlington Road, Bellarine ", Latitude=-38.137468, Longitude=144.610376, Phone="03 5259 3310", Website=@"http://www.bellarineestate.com.au" });</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A4 &amp;""", Address = """&amp;microbreweries!C4&amp;", "&amp; microbreweries!D4 &amp;""", Latitude="&amp;microbreweries!L4 &amp;", Longitude="&amp; microbreweries!M4 &amp;", Phone="""&amp;microbreweries!F4&amp;", Website="""&amp;microbreweries!H4&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Bintara Brewery", Address = "Fraser Road, Rutherglen", Latitude=-36.050597, Longitude=146.584322, Phone="0447 327 517, Website="http://www.vintara.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A4 &amp;""", Address = """&amp;microbreweries!C4&amp;", "&amp; microbreweries!D4 &amp;""", Latitude="&amp;microbreweries!L4 &amp;", Longitude="&amp; microbreweries!M4 &amp;", Phone="""&amp;microbreweries!F4&amp;""", Website=@"""&amp;microbreweries!H4&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Bintara Brewery", Address = "Fraser Road, Rutherglen", Latitude=-36.050597, Longitude=146.584322, Phone="0447 327 517", Website=@"http://www.vintara.com.au" });</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A5 &amp;""", Address = """&amp;microbreweries!C5&amp;", "&amp; microbreweries!D5 &amp;""", Latitude="&amp;microbreweries!L5 &amp;", Longitude="&amp; microbreweries!M5 &amp;", Phone="""&amp;microbreweries!F5&amp;", Website="""&amp;microbreweries!H5&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Boynton’s Brewing Company", Address = "6619 Great Alpine Road, Porepunkah", Latitude=-36.675300, Longitude=146.889032, Phone="03 5756 2356, Website="http://www.boynton.com.au/ });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A5 &amp;""", Address = """&amp;microbreweries!C5&amp;", "&amp; microbreweries!D5 &amp;""", Latitude="&amp;microbreweries!L5 &amp;", Longitude="&amp; microbreweries!M5 &amp;", Phone="""&amp;microbreweries!F5&amp;""", Website=@"""&amp;microbreweries!H5&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Boynton’s Brewing Company", Address = "6619 Great Alpine Road, Porepunkah", Latitude=-36.675300, Longitude=146.889032, Phone="03 5756 2356", Website=@"http://www.boynton.com.au/" });</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A6 &amp;""", Address = """&amp;microbreweries!C6&amp;", "&amp; microbreweries!D6 &amp;""", Latitude="&amp;microbreweries!L6 &amp;", Longitude="&amp; microbreweries!M6 &amp;", Phone="""&amp;microbreweries!F6&amp;", Website="""&amp;microbreweries!H6&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Bridge Road Brewers", Address = "50 Ford St, Beechworth", Latitude=-36.360517, Longitude=146.685872, Phone="5728 2703, Website="http://www.bridgeroadbrewers.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A6 &amp;""", Address = """&amp;microbreweries!C6&amp;", "&amp; microbreweries!D6 &amp;""", Latitude="&amp;microbreweries!L6 &amp;", Longitude="&amp; microbreweries!M6 &amp;", Phone="""&amp;microbreweries!F6&amp;""", Website=@"""&amp;microbreweries!H6&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Bridge Road Brewers", Address = "50 Ford St, Beechworth", Latitude=-36.360517, Longitude=146.685872, Phone="5728 2703", Website=@"http://www.bridgeroadbrewers.com.au" });</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A7 &amp;""", Address = """&amp;microbreweries!C7&amp;", "&amp; microbreweries!D7 &amp;""", Latitude="&amp;microbreweries!L7 &amp;", Longitude="&amp; microbreweries!M7 &amp;", Phone="""&amp;microbreweries!F7&amp;", Website="""&amp;microbreweries!H7&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Bright Brewery", Address = "121 Great Alpine Road, Bright", Latitude=-36.726597, Longitude=146.961809, Phone="03 5755 1301, Website="http://www.brightbrewery.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A7 &amp;""", Address = """&amp;microbreweries!C7&amp;", "&amp; microbreweries!D7 &amp;""", Latitude="&amp;microbreweries!L7 &amp;", Longitude="&amp; microbreweries!M7 &amp;", Phone="""&amp;microbreweries!F7&amp;""", Website=@"""&amp;microbreweries!H7&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Bright Brewery", Address = "121 Great Alpine Road, Bright", Latitude=-36.726597, Longitude=146.961809, Phone="03 5755 1301", Website=@"http://www.brightbrewery.com.au" });</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A8 &amp;""", Address = """&amp;microbreweries!C8&amp;", "&amp; microbreweries!D8 &amp;""", Latitude="&amp;microbreweries!L8 &amp;", Longitude="&amp; microbreweries!M8 &amp;", Phone="""&amp;microbreweries!F8&amp;", Website="""&amp;microbreweries!H8&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Buckley’s Beers", Address = "30 Hunter Road, Healesville", Latitude=-37.655065, Longitude=145.505366, Phone="03 5962 2701, Website="http://www.buckleysbeer.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A8 &amp;""", Address = """&amp;microbreweries!C8&amp;", "&amp; microbreweries!D8 &amp;""", Latitude="&amp;microbreweries!L8 &amp;", Longitude="&amp; microbreweries!M8 &amp;", Phone="""&amp;microbreweries!F8&amp;""", Website=@"""&amp;microbreweries!H8&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Buckley’s Beers", Address = "30 Hunter Road, Healesville", Latitude=-37.655065, Longitude=145.505366, Phone="03 5962 2701", Website=@"http://www.buckleysbeer.com.au" });</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A9 &amp;""", Address = """&amp;microbreweries!C9&amp;", "&amp; microbreweries!D9 &amp;""", Latitude="&amp;microbreweries!L9 &amp;", Longitude="&amp; microbreweries!M9 &amp;", Phone="""&amp;microbreweries!F9&amp;", Website="""&amp;microbreweries!H9&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Coldstream Brewery", Address = "694 Maroondah Highway, Coldstream", Latitude=-37.724201, Longitude=145.379153, Phone="03 9739 1794, Website="http://www.coldstreambrewery.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A9 &amp;""", Address = """&amp;microbreweries!C9&amp;", "&amp; microbreweries!D9 &amp;""", Latitude="&amp;microbreweries!L9 &amp;", Longitude="&amp; microbreweries!M9 &amp;", Phone="""&amp;microbreweries!F9&amp;""", Website=@"""&amp;microbreweries!H9&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Coldstream Brewery", Address = "694 Maroondah Highway, Coldstream", Latitude=-37.724201, Longitude=145.379153, Phone="03 9739 1794", Website=@"http://www.coldstreambrewery.com.au" });</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A10 &amp;""", Address = """&amp;microbreweries!C10&amp;", "&amp; microbreweries!D10 &amp;""", Latitude="&amp;microbreweries!L10 &amp;", Longitude="&amp; microbreweries!M10 &amp;", Phone="""&amp;microbreweries!F10&amp;", Website="""&amp;microbreweries!H10&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Flying Horse Bar &amp; Brewery", Address = "10691-10695 Princes Highway, Warrnambool", Latitude=-38.385021, Longitude=142.533205, Phone="03 5562 2254, Website="http://www.theflyinghorse.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A10 &amp;""", Address = """&amp;microbreweries!C10&amp;", "&amp; microbreweries!D10 &amp;""", Latitude="&amp;microbreweries!L10 &amp;", Longitude="&amp; microbreweries!M10 &amp;", Phone="""&amp;microbreweries!F10&amp;""", Website=@"""&amp;microbreweries!H10&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Flying Horse Bar &amp; Brewery", Address = "10691-10695 Princes Highway, Warrnambool", Latitude=-38.385021, Longitude=142.533205, Phone="03 5562 2254", Website=@"http://www.theflyinghorse.com.au" });</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A11 &amp;""", Address = """&amp;microbreweries!C11&amp;", "&amp; microbreweries!D11 &amp;""", Latitude="&amp;microbreweries!L11 &amp;", Longitude="&amp; microbreweries!M11 &amp;", Phone="""&amp;microbreweries!F11&amp;", Website="""&amp;microbreweries!H11&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Grand Ridge Brewery", Address = "1 Baromi Road, Mirboo North", Latitude=-38.400869, Longitude=146.162129, Phone="9778 6996, Website="http://www.grand-ridge.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A11 &amp;""", Address = """&amp;microbreweries!C11&amp;", "&amp; microbreweries!D11 &amp;""", Latitude="&amp;microbreweries!L11 &amp;", Longitude="&amp; microbreweries!M11 &amp;", Phone="""&amp;microbreweries!F11&amp;""", Website=@"""&amp;microbreweries!H11&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Grand Ridge Brewery", Address = "1 Baromi Road, Mirboo North", Latitude=-38.400869, Longitude=146.162129, Phone="9778 6996", Website=@"http://www.grand-ridge.com.au" });</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A12 &amp;""", Address = """&amp;microbreweries!C12&amp;", "&amp; microbreweries!D12 &amp;""", Latitude="&amp;microbreweries!L12 &amp;", Longitude="&amp; microbreweries!M12 &amp;", Phone="""&amp;microbreweries!F12&amp;", Website="""&amp;microbreweries!H12&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Hargreaves Hill Brewing Co.", Address = "25 Bell Street, Yarra Glen", Latitude=-37.658336, Longitude=145.374217, Phone="9730 1905, Website="http://www.hargreaveshill.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A12 &amp;""", Address = """&amp;microbreweries!C12&amp;", "&amp; microbreweries!D12 &amp;""", Latitude="&amp;microbreweries!L12 &amp;", Longitude="&amp; microbreweries!M12 &amp;", Phone="""&amp;microbreweries!F12&amp;""", Website=@"""&amp;microbreweries!H12&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Hargreaves Hill Brewing Co.", Address = "25 Bell Street, Yarra Glen", Latitude=-37.658336, Longitude=145.374217, Phone="9730 1905", Website=@"http://www.hargreaveshill.com.au" });</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A13 &amp;""", Address = """&amp;microbreweries!C13&amp;", "&amp; microbreweries!D13 &amp;""", Latitude="&amp;microbreweries!L13 &amp;", Longitude="&amp; microbreweries!M13 &amp;", Phone="""&amp;microbreweries!F13&amp;", Website="""&amp;microbreweries!H13&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Holgate Brewhouse", Address = "79 High Street, Woodend", Latitude=-37.356929, Longitude=144.527011, Phone="5427 3522, Website="http://www.holgatebrewhouse.com });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A13 &amp;""", Address = """&amp;microbreweries!C13&amp;", "&amp; microbreweries!D13 &amp;""", Latitude="&amp;microbreweries!L13 &amp;", Longitude="&amp; microbreweries!M13 &amp;", Phone="""&amp;microbreweries!F13&amp;""", Website=@"""&amp;microbreweries!H13&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Holgate Brewhouse", Address = "79 High Street, Woodend", Latitude=-37.356929, Longitude=144.527011, Phone="5427 3522", Website=@"http://www.holgatebrewhouse.com" });</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A14 &amp;""", Address = """&amp;microbreweries!C14&amp;", "&amp; microbreweries!D14 &amp;""", Latitude="&amp;microbreweries!L14 &amp;", Longitude="&amp; microbreweries!M14 &amp;", Phone="""&amp;microbreweries!F14&amp;", Website="""&amp;microbreweries!H14&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="James Squire Brewhouse - Portland Hotel", Address = "115-127 Russell Street, Melbourne", Latitude=-37.813510, Longitude=144.968323, Phone="03 9810 0064, Website="http://www.portlandhotel.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A14 &amp;""", Address = """&amp;microbreweries!C14&amp;", "&amp; microbreweries!D14 &amp;""", Latitude="&amp;microbreweries!L14 &amp;", Longitude="&amp; microbreweries!M14 &amp;", Phone="""&amp;microbreweries!F14&amp;""", Website=@"""&amp;microbreweries!H14&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="James Squire Brewhouse - Portland Hotel", Address = "115-127 Russell Street, Melbourne", Latitude=-37.813510, Longitude=144.968323, Phone="03 9810 0064", Website=@"http://www.portlandhotel.com.au" });</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A15 &amp;""", Address = """&amp;microbreweries!C15&amp;", "&amp; microbreweries!D15 &amp;""", Latitude="&amp;microbreweries!L15 &amp;", Longitude="&amp; microbreweries!M15 &amp;", Phone="""&amp;microbreweries!F15&amp;", Website="""&amp;microbreweries!H15&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Jamieson Brewery", Address = "Eildon Road, Jamieson", Latitude=-37.281281, Longitude=146.131814, Phone="03 5777 0515, Website="http://www.jamiesonbrewery.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A15 &amp;""", Address = """&amp;microbreweries!C15&amp;", "&amp; microbreweries!D15 &amp;""", Latitude="&amp;microbreweries!L15 &amp;", Longitude="&amp; microbreweries!M15 &amp;", Phone="""&amp;microbreweries!F15&amp;""", Website=@"""&amp;microbreweries!H15&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Jamieson Brewery", Address = "Eildon Road, Jamieson", Latitude=-37.281281, Longitude=146.131814, Phone="03 5777 0515", Website=@"http://www.jamiesonbrewery.com.au" });</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A16 &amp;""", Address = """&amp;microbreweries!C16&amp;", "&amp; microbreweries!D16 &amp;""", Latitude="&amp;microbreweries!L16 &amp;", Longitude="&amp; microbreweries!M16 &amp;", Phone="""&amp;microbreweries!F16&amp;", Website="""&amp;microbreweries!H16&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Mildura Brewery", Address = "20 Langtree Avenue, Mildura", Latitude=-34.183338, Longitude=142.162799, Phone="5021 5399, Website="http://www.mildurabrewery.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A16 &amp;""", Address = """&amp;microbreweries!C16&amp;", "&amp; microbreweries!D16 &amp;""", Latitude="&amp;microbreweries!L16 &amp;", Longitude="&amp; microbreweries!M16 &amp;", Phone="""&amp;microbreweries!F16&amp;""", Website=@"""&amp;microbreweries!H16&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Mildura Brewery", Address = "20 Langtree Avenue, Mildura", Latitude=-34.183338, Longitude=142.162799, Phone="5021 5399", Website=@"http://www.mildurabrewery.com.au" });</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A17 &amp;""", Address = """&amp;microbreweries!C17&amp;", "&amp; microbreweries!D17 &amp;""", Latitude="&amp;microbreweries!L17 &amp;", Longitude="&amp; microbreweries!M17 &amp;", Phone="""&amp;microbreweries!F17&amp;", Website="""&amp;microbreweries!H17&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Mountain Goat Brewery", Address = "80 North Street, Richmond", Latitude=-37.816753, Longitude=145.012984, Phone="03 9428 1180, Website="http://www.goatbeer.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A17 &amp;""", Address = """&amp;microbreweries!C17&amp;", "&amp; microbreweries!D17 &amp;""", Latitude="&amp;microbreweries!L17 &amp;", Longitude="&amp; microbreweries!M17 &amp;", Phone="""&amp;microbreweries!F17&amp;""", Website=@"""&amp;microbreweries!H17&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Mountain Goat Brewery", Address = "80 North Street, Richmond", Latitude=-37.816753, Longitude=145.012984, Phone="03 9428 1180", Website=@"http://www.goatbeer.com.au" });</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A18 &amp;""", Address = """&amp;microbreweries!C18&amp;", "&amp; microbreweries!D18 &amp;""", Latitude="&amp;microbreweries!L18 &amp;", Longitude="&amp; microbreweries!M18 &amp;", Phone="""&amp;microbreweries!F18&amp;", Website="""&amp;microbreweries!H18&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Otway Estate", Address = "10 - 30 Hoveys Road, Barongarook", Latitude=-38.445039, Longitude=143.564024, Phone="5233 8400, Website="http://www.otwayestate.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A18 &amp;""", Address = """&amp;microbreweries!C18&amp;", "&amp; microbreweries!D18 &amp;""", Latitude="&amp;microbreweries!L18 &amp;", Longitude="&amp; microbreweries!M18 &amp;", Phone="""&amp;microbreweries!F18&amp;""", Website=@"""&amp;microbreweries!H18&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Otway Estate", Address = "10 - 30 Hoveys Road, Barongarook", Latitude=-38.445039, Longitude=143.564024, Phone="5233 8400", Website=@"http://www.otwayestate.com.au" });</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A19 &amp;""", Address = """&amp;microbreweries!C19&amp;", "&amp; microbreweries!D19 &amp;""", Latitude="&amp;microbreweries!L19 &amp;", Longitude="&amp; microbreweries!M19 &amp;", Phone="""&amp;microbreweries!F19&amp;", Website="""&amp;microbreweries!H19&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Red Hill Brewery", Address = "88 Shoreham Road, Red Hill South", Latitude=-38.402759, Longitude=145.015842, Phone="03 5989 2959, Website="http://www.redhillbrewery.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A19 &amp;""", Address = """&amp;microbreweries!C19&amp;", "&amp; microbreweries!D19 &amp;""", Latitude="&amp;microbreweries!L19 &amp;", Longitude="&amp; microbreweries!M19 &amp;", Phone="""&amp;microbreweries!F19&amp;""", Website=@"""&amp;microbreweries!H19&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Red Hill Brewery", Address = "88 Shoreham Road, Red Hill South", Latitude=-38.402759, Longitude=145.015842, Phone="03 5989 2959", Website=@"http://www.redhillbrewery.com.au" });</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A20 &amp;""", Address = """&amp;microbreweries!C20&amp;", "&amp; microbreweries!D20 &amp;""", Latitude="&amp;microbreweries!L20 &amp;", Longitude="&amp; microbreweries!M20 &amp;", Phone="""&amp;microbreweries!F20&amp;", Website="""&amp;microbreweries!H20&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Sweetwater Brewery", Address = "211 Kiewa Valley Hwy, Tawonga South", Latitude=-36.736165, Longitude=147.159068, Phone="5754 1881, Website="http://www.sweetwaterbrewing.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A20 &amp;""", Address = """&amp;microbreweries!C20&amp;", "&amp; microbreweries!D20 &amp;""", Latitude="&amp;microbreweries!L20 &amp;", Longitude="&amp; microbreweries!M20 &amp;", Phone="""&amp;microbreweries!F20&amp;""", Website=@"""&amp;microbreweries!H20&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Sweetwater Brewery", Address = "211 Kiewa Valley Hwy, Tawonga South", Latitude=-36.736165, Longitude=147.159068, Phone="5754 1881", Website=@"http://www.sweetwaterbrewing.com.au" });</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A21 &amp;""", Address = """&amp;microbreweries!C21&amp;", "&amp; microbreweries!D21 &amp;""", Latitude="&amp;microbreweries!L21 &amp;", Longitude="&amp; microbreweries!M21 &amp;", Phone="""&amp;microbreweries!F21&amp;", Website="""&amp;microbreweries!H21&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Temple Brewing Company", Address = "122 Weston Street, Melbourne", Latitude=-37.775964, Longitude=144.971539, Phone="0418 557 875, Website="http://www.templebrewing.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A21 &amp;""", Address = """&amp;microbreweries!C21&amp;", "&amp; microbreweries!D21 &amp;""", Latitude="&amp;microbreweries!L21 &amp;", Longitude="&amp; microbreweries!M21 &amp;", Phone="""&amp;microbreweries!F21&amp;""", Website=@"""&amp;microbreweries!H21&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Temple Brewing Company", Address = "122 Weston Street, Melbourne", Latitude=-37.775964, Longitude=144.971539, Phone="0418 557 875", Website=@"http://www.templebrewing.com.au" });</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A22 &amp;""", Address = """&amp;microbreweries!C22&amp;", "&amp; microbreweries!D22 &amp;""", Latitude="&amp;microbreweries!L22 &amp;", Longitude="&amp; microbreweries!M22 &amp;", Phone="""&amp;microbreweries!F22&amp;", Website="""&amp;microbreweries!H22&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="The 3 Ravens Brewing Company", Address = "1 Theobald Street, Thornbury", Latitude=-37.755797, Longitude=145.026785, Phone="03 9495 1026, Website="http://www.3ravens.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A22 &amp;""", Address = """&amp;microbreweries!C22&amp;", "&amp; microbreweries!D22 &amp;""", Latitude="&amp;microbreweries!L22 &amp;", Longitude="&amp; microbreweries!M22 &amp;", Phone="""&amp;microbreweries!F22&amp;""", Website=@"""&amp;microbreweries!H22&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="The 3 Ravens Brewing Company", Address = "1 Theobald Street, Thornbury", Latitude=-37.755797, Longitude=145.026785, Phone="03 9495 1026", Website=@"http://www.3ravens.com.au" });</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A23 &amp;""", Address = """&amp;microbreweries!C23&amp;", "&amp; microbreweries!D23 &amp;""", Latitude="&amp;microbreweries!L23 &amp;", Longitude="&amp; microbreweries!M23 &amp;", Phone="""&amp;microbreweries!F23&amp;", Website="""&amp;microbreweries!H23&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Tooborac Hoand Brewery", Address = "5115 Northern Highway, Tooborac", Latitude=-37.042001, Longitude=144.798361, Phone="03 5433 5201, Website="http://www.tooborachotel.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A23 &amp;""", Address = """&amp;microbreweries!C23&amp;", "&amp; microbreweries!D23 &amp;""", Latitude="&amp;microbreweries!L23 &amp;", Longitude="&amp; microbreweries!M23 &amp;", Phone="""&amp;microbreweries!F23&amp;""", Website=@"""&amp;microbreweries!H23&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Tooborac Hoand Brewery", Address = "5115 Northern Highway, Tooborac", Latitude=-37.042001, Longitude=144.798361, Phone="03 5433 5201", Website=@"http://www.tooborachotel.com.au" });</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A24 &amp;""", Address = """&amp;microbreweries!C24&amp;", "&amp; microbreweries!D24 &amp;""", Latitude="&amp;microbreweries!L24 &amp;", Longitude="&amp; microbreweries!M24 &amp;", Phone="""&amp;microbreweries!F24&amp;", Website="""&amp;microbreweries!H24&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="University of Ballarat Brewery", Address = "University Drive, Mt Helen, Ballarat", Latitude=-37.626207, Longitude=143.891734, Phone="03 5327 9243, Website="http://www.ballarat.edu.au/ard/scieng/courses/food.shtml });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A24 &amp;""", Address = """&amp;microbreweries!C24&amp;", "&amp; microbreweries!D24 &amp;""", Latitude="&amp;microbreweries!L24 &amp;", Longitude="&amp; microbreweries!M24 &amp;", Phone="""&amp;microbreweries!F24&amp;""", Website=@"""&amp;microbreweries!H24&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="University of Ballarat Brewery", Address = "University Drive, Mt Helen, Ballarat", Latitude=-37.626207, Longitude=143.891734, Phone="03 5327 9243", Website=@"http://www.ballarat.edu.au/ard/scieng/courses/food.shtml" });</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A25 &amp;""", Address = """&amp;microbreweries!C25&amp;", "&amp; microbreweries!D25 &amp;""", Latitude="&amp;microbreweries!L25 &amp;", Longitude="&amp; microbreweries!M25 &amp;", Phone="""&amp;microbreweries!F25&amp;", Website="""&amp;microbreweries!H25&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="White Rabbit Brewery", Address = "316 Maroondah Highway, Healesville", Latitude=-37.652088, Longitude=145.521731, Phone="03 5962 6516, Website="http://www.whiterabbitbeer.com.au });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A25 &amp;""", Address = """&amp;microbreweries!C25&amp;", "&amp; microbreweries!D25 &amp;""", Latitude="&amp;microbreweries!L25 &amp;", Longitude="&amp; microbreweries!M25 &amp;", Phone="""&amp;microbreweries!F25&amp;""", Website=@"""&amp;microbreweries!H25&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="White Rabbit Brewery", Address = "316 Maroondah Highway, Healesville", Latitude=-37.652088, Longitude=145.521731, Phone="03 5962 6516", Website=@"http://www.whiterabbitbeer.com.au" });</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A26 &amp;""", Address = """&amp;microbreweries!C26&amp;", "&amp; microbreweries!D26 &amp;""", Latitude="&amp;microbreweries!L26 &amp;", Longitude="&amp; microbreweries!M26 &amp;", Phone="""&amp;microbreweries!F26&amp;", Website="""&amp;microbreweries!H26&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="2 Brothers Brewery", Address = "4 Joyner Street , Moorabbin", Latitude=-37.942712, Longitude=145.068652, Phone="9553 1177, Website="http://www.2brothers.com.au });</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A27 &amp;""", Address = """&amp;microbreweries!C27&amp;", "&amp; microbreweries!D27 &amp;""", Latitude="&amp;microbreweries!L27 &amp;", Longitude="&amp; microbreweries!M27 &amp;", Phone="""&amp;microbreweries!F27&amp;", Website="""&amp;microbreweries!H27&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="Three Troupers Brewery", Address = "762 Elmhurst Road, Beaufort", Latitude=, Longitude=, Phone="0419 497 379, Website="http://www.threetroupers.com.au });</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A28 &amp;""", Address = """&amp;microbreweries!C28&amp;", "&amp; microbreweries!D28 &amp;""", Latitude="&amp;microbreweries!L28 &amp;", Longitude="&amp; microbreweries!M28 &amp;", Phone="""&amp;microbreweries!F28&amp;", Website="""&amp;microbreweries!H28&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="13 James Squire Brewhouse - Waterfont City", Address = "Tenancy 16, Waterfront City, 439 Docklands Drive, Docklands, Melbourne", Latitude=, Longitude=, Phone="03 9600 0700, Website="www.jamessquirebrewhouse.net });</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A29 &amp;""", Address = """&amp;microbreweries!C29&amp;", "&amp; microbreweries!D29 &amp;""", Latitude="&amp;microbreweries!L29 &amp;", Longitude="&amp; microbreweries!M29 &amp;", Phone="""&amp;microbreweries!F29&amp;", Website="""&amp;microbreweries!H29&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="", Address = ", ", Latitude=, Longitude=, Phone=", Website=" });</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A30 &amp;""", Address = """&amp;microbreweries!C30&amp;", "&amp; microbreweries!D30 &amp;""", Latitude="&amp;microbreweries!L30 &amp;", Longitude="&amp; microbreweries!M30 &amp;", Phone="""&amp;microbreweries!F30&amp;", Website="""&amp;microbreweries!H30&amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="", Address = ", ", Latitude=, Longitude=, Phone=", Website=" });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;microbreweries!A26 &amp;""", Address = """&amp;microbreweries!C26&amp;", "&amp; microbreweries!D26 &amp;""", Latitude="&amp;microbreweries!L26 &amp;", Longitude="&amp; microbreweries!M26 &amp;", Phone="""&amp;microbreweries!F26&amp;""", Website=@"""&amp;microbreweries!H26&amp;""" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="2 Brothers Brewery", Address = "4 Joyner Street , Moorabbin", Latitude=-37.942712, Longitude=145.068652, Phone="9553 1177", Website=@"http://www.2brothers.com.au" });</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>